--- a/medicine/Psychotrope/Bucelas_(DOC)/Bucelas_(DOC).xlsx
+++ b/medicine/Psychotrope/Bucelas_(DOC)/Bucelas_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bucelas est un vin d'appellation d'origine (DOC) portugais produit sur le terroir de Bucelas dans le municipio de Loures, près de l'estuaire du Tage. 
 </t>
@@ -511,7 +523,9 @@
           <t>Type de vins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins de Bucelas peuvent être vinifiés en blanc tranquille ou en effervescent. 
 </t>
@@ -542,7 +556,9 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arinto (Pedernã), Sercial (ou Cão) et Rabo de Ovelha. L'arinto, grâce à son acidité, permet d'excellents assemblages et produit des vins délicats aux arômes floraux. Sa capacité à vieillir a fait la renommée des vieux vins de Bucelas.</t>
         </is>
